--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H2">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>7736.48130139835</v>
+        <v>11055.33429127714</v>
       </c>
       <c r="R2">
-        <v>69628.33171258515</v>
+        <v>99498.00862149429</v>
       </c>
       <c r="S2">
-        <v>0.173025951708469</v>
+        <v>0.2005317598147809</v>
       </c>
       <c r="T2">
-        <v>0.173025951708469</v>
+        <v>0.2005317598147809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H3">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>8154.537877723027</v>
+        <v>11961.67770583334</v>
       </c>
       <c r="R3">
-        <v>73390.84089950724</v>
+        <v>107655.0993525001</v>
       </c>
       <c r="S3">
-        <v>0.1823757625809502</v>
+        <v>0.2169718452187019</v>
       </c>
       <c r="T3">
-        <v>0.1823757625809501</v>
+        <v>0.2169718452187018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H4">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>5268.558052948132</v>
+        <v>5156.522431121194</v>
       </c>
       <c r="R4">
-        <v>47417.02247653319</v>
+        <v>46408.70188009075</v>
       </c>
       <c r="S4">
-        <v>0.1178309926345844</v>
+        <v>0.093533717786626</v>
       </c>
       <c r="T4">
-        <v>0.1178309926345844</v>
+        <v>0.093533717786626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H5">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I5">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J5">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>2822.846378891074</v>
+        <v>4049.274895839445</v>
       </c>
       <c r="R5">
-        <v>25405.61741001966</v>
+        <v>36443.47406255501</v>
       </c>
       <c r="S5">
-        <v>0.06313279412258797</v>
+        <v>0.073449449780744</v>
       </c>
       <c r="T5">
-        <v>0.06313279412258796</v>
+        <v>0.073449449780744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H6">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I6">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J6">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>4109.343631496376</v>
+        <v>4834.776446815233</v>
       </c>
       <c r="R6">
-        <v>36984.09268346738</v>
+        <v>43512.98802133709</v>
       </c>
       <c r="S6">
-        <v>0.09190522991482976</v>
+        <v>0.08769759499320481</v>
       </c>
       <c r="T6">
-        <v>0.09190522991482974</v>
+        <v>0.08769759499320483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>1847.607899969415</v>
+        <v>1799.887941331609</v>
       </c>
       <c r="R7">
-        <v>16628.47109972473</v>
+        <v>16198.99147198448</v>
       </c>
       <c r="S7">
-        <v>0.04132164259461363</v>
+        <v>0.03264801288093248</v>
       </c>
       <c r="T7">
-        <v>0.04132164259461361</v>
+        <v>0.03264801288093246</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I8">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J8">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>1947.447168360335</v>
@@ -948,10 +948,10 @@
         <v>17527.02451524301</v>
       </c>
       <c r="S8">
-        <v>0.04355454199140965</v>
+        <v>0.03532457703479316</v>
       </c>
       <c r="T8">
-        <v>0.04355454199140964</v>
+        <v>0.03532457703479314</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I9">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J9">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>1258.224391793594</v>
+        <v>839.5189415759227</v>
       </c>
       <c r="R9">
-        <v>11324.01952614234</v>
+        <v>7555.670474183304</v>
       </c>
       <c r="S9">
-        <v>0.02814011491419832</v>
+        <v>0.01522796202416903</v>
       </c>
       <c r="T9">
-        <v>0.02814011491419832</v>
+        <v>0.01522796202416903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I10">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J10">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>674.1453985155388</v>
+        <v>659.2510786316772</v>
       </c>
       <c r="R10">
-        <v>6067.308586639848</v>
+        <v>5933.259707685094</v>
       </c>
       <c r="S10">
-        <v>0.01507722239914843</v>
+        <v>0.01195809873086438</v>
       </c>
       <c r="T10">
-        <v>0.01507722239914843</v>
+        <v>0.01195809873086438</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I11">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J11">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>981.3835853089171</v>
+        <v>787.1363810792133</v>
       </c>
       <c r="R11">
-        <v>8832.452267780252</v>
+        <v>7084.22742971292</v>
       </c>
       <c r="S11">
-        <v>0.02194858647282623</v>
+        <v>0.01427779925538713</v>
       </c>
       <c r="T11">
-        <v>0.02194858647282623</v>
+        <v>0.01427779925538713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H12">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I12">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J12">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>39.36569285729733</v>
+        <v>5.574856865411556</v>
       </c>
       <c r="R12">
-        <v>354.291235715676</v>
+        <v>50.173711788704</v>
       </c>
       <c r="S12">
-        <v>0.0008804114177935166</v>
+        <v>0.0001011218501839934</v>
       </c>
       <c r="T12">
-        <v>0.0008804114177935165</v>
+        <v>0.0001011218501839934</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H13">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I13">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J13">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>41.492898513129</v>
+        <v>6.031897301633</v>
       </c>
       <c r="R13">
-        <v>373.436086618161</v>
+        <v>54.287075714697</v>
       </c>
       <c r="S13">
-        <v>0.0009279862478410455</v>
+        <v>0.0001094120674281989</v>
       </c>
       <c r="T13">
-        <v>0.0009279862478410454</v>
+        <v>0.0001094120674281988</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H14">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I14">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J14">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>26.80810953110033</v>
+        <v>2.600271843382111</v>
       </c>
       <c r="R14">
-        <v>241.272985779903</v>
+        <v>23.402446590439</v>
       </c>
       <c r="S14">
-        <v>0.0005995618013430882</v>
+        <v>4.716610778216469E-05</v>
       </c>
       <c r="T14">
-        <v>0.0005995618013430882</v>
+        <v>4.716610778216469E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H15">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I15">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J15">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>14.36354580404333</v>
+        <v>2.041921787097889</v>
       </c>
       <c r="R15">
-        <v>129.27191223639</v>
+        <v>18.377296083881</v>
       </c>
       <c r="S15">
-        <v>0.0003212398616155872</v>
+        <v>3.703824403518593E-05</v>
       </c>
       <c r="T15">
-        <v>0.0003212398616155872</v>
+        <v>3.703824403518592E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H16">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I16">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J16">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>20.90965555792634</v>
+        <v>2.438025477757334</v>
       </c>
       <c r="R16">
-        <v>188.186900021337</v>
+        <v>21.942229299816</v>
       </c>
       <c r="S16">
-        <v>0.0004676432233026342</v>
+        <v>4.422313488192774E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004676432233026342</v>
+        <v>4.422313488192773E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H17">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I17">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J17">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>2659.056669129158</v>
+        <v>3561.869280129707</v>
       </c>
       <c r="R17">
-        <v>23931.51002216242</v>
+        <v>32056.82352116736</v>
       </c>
       <c r="S17">
-        <v>0.05946964684573913</v>
+        <v>0.06460844115208594</v>
       </c>
       <c r="T17">
-        <v>0.05946964684573913</v>
+        <v>0.06460844115208592</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H18">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I18">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J18">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>2802.744229926146</v>
+        <v>3853.88005795872</v>
       </c>
       <c r="R18">
-        <v>25224.69806933531</v>
+        <v>34684.92052162848</v>
       </c>
       <c r="S18">
-        <v>0.06268321073699724</v>
+        <v>0.06990519958743581</v>
       </c>
       <c r="T18">
-        <v>0.06268321073699724</v>
+        <v>0.0699051995874358</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H19">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I19">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J19">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>1810.822502066113</v>
+        <v>1661.357165309973</v>
       </c>
       <c r="R19">
-        <v>16297.40251859502</v>
+        <v>14952.21448778976</v>
       </c>
       <c r="S19">
-        <v>0.04049893932251458</v>
+        <v>0.03013521502496491</v>
       </c>
       <c r="T19">
-        <v>0.04049893932251458</v>
+        <v>0.03013521502496491</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H20">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I20">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J20">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>970.2225336420954</v>
+        <v>1304.617977013227</v>
       </c>
       <c r="R20">
-        <v>8732.002802778859</v>
+        <v>11741.56179311904</v>
       </c>
       <c r="S20">
-        <v>0.02169897020523825</v>
+        <v>0.02366435350787018</v>
       </c>
       <c r="T20">
-        <v>0.02169897020523825</v>
+        <v>0.02366435350787018</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H21">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I21">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J21">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>1412.396303096971</v>
+        <v>1557.69524905216</v>
       </c>
       <c r="R21">
-        <v>12711.56672787274</v>
+        <v>14019.25724146944</v>
       </c>
       <c r="S21">
-        <v>0.03158816069117951</v>
+        <v>0.02825490042341067</v>
       </c>
       <c r="T21">
-        <v>0.03158816069117951</v>
+        <v>0.02825490042341067</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H22">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I22">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J22">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>31.41763968134933</v>
+        <v>24.21163627327289</v>
       </c>
       <c r="R22">
-        <v>282.758757132144</v>
+        <v>217.904726459456</v>
       </c>
       <c r="S22">
-        <v>0.0007026536734880589</v>
+        <v>0.000439172792242532</v>
       </c>
       <c r="T22">
-        <v>0.0007026536734880589</v>
+        <v>0.0004391727922425319</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H23">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I23">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J23">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>33.115356042276</v>
+        <v>26.196565585562</v>
       </c>
       <c r="R23">
-        <v>298.038204380484</v>
+        <v>235.769090270058</v>
       </c>
       <c r="S23">
-        <v>0.0007406230005808912</v>
+        <v>0.0004751772546689047</v>
       </c>
       <c r="T23">
-        <v>0.0007406230005808912</v>
+        <v>0.0004751772546689045</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H24">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I24">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J24">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>21.39547064088133</v>
+        <v>11.29299596447178</v>
       </c>
       <c r="R24">
-        <v>192.559235767932</v>
+        <v>101.636963680246</v>
       </c>
       <c r="S24">
-        <v>0.0004785084492119146</v>
+        <v>0.0002048426845060269</v>
       </c>
       <c r="T24">
-        <v>0.0004785084492119147</v>
+        <v>0.0002048426845060269</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H25">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I25">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J25">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>11.46350219857333</v>
+        <v>8.868078374248222</v>
       </c>
       <c r="R25">
-        <v>103.17151978716</v>
+        <v>79.81270536823401</v>
       </c>
       <c r="S25">
-        <v>0.0002563805560367305</v>
+        <v>0.0001608573124710062</v>
       </c>
       <c r="T25">
-        <v>0.0002563805560367306</v>
+        <v>0.0001608573124710062</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H26">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I26">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J26">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>16.68793247362533</v>
+        <v>10.58835904086934</v>
       </c>
       <c r="R26">
-        <v>150.191392262628</v>
+        <v>95.295231367824</v>
       </c>
       <c r="S26">
-        <v>0.000373224633500218</v>
+        <v>0.0001920613358287679</v>
       </c>
       <c r="T26">
-        <v>0.000373224633500218</v>
+        <v>0.0001920613358287679</v>
       </c>
     </row>
   </sheetData>
